--- a/Hardware/BOM Controller PCB.xlsx
+++ b/Hardware/BOM Controller PCB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hf-datengrab\Projekte\2019 MetaSEC\Heinrichs\Open Source RIS\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heinrichs\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5364EFCA-0716-4023-B61B-E057E4FE452E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AD7765-3129-446B-9106-61150EE8CE92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="152">
   <si>
     <t>Part</t>
   </si>
@@ -373,6 +373,114 @@
   </si>
   <si>
     <t>BOM for Open Source RIS - Controller-PCB</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>S101</t>
+  </si>
+  <si>
+    <t>Q101</t>
+  </si>
+  <si>
+    <t>LED101</t>
+  </si>
+  <si>
+    <t>IC101</t>
+  </si>
+  <si>
+    <t>C303</t>
+  </si>
+  <si>
+    <t>C202</t>
+  </si>
+  <si>
+    <t>R202</t>
+  </si>
+  <si>
+    <t>X202</t>
+  </si>
+  <si>
+    <t>X201</t>
+  </si>
+  <si>
+    <t>J101</t>
+  </si>
+  <si>
+    <t>J401, J402</t>
+  </si>
+  <si>
+    <t>J403, J404</t>
+  </si>
+  <si>
+    <t>LED102</t>
+  </si>
+  <si>
+    <t>LED201, LED301</t>
+  </si>
+  <si>
+    <t>LED202, LED302</t>
+  </si>
+  <si>
+    <t>IC203</t>
+  </si>
+  <si>
+    <t>IC202</t>
+  </si>
+  <si>
+    <t>IC201</t>
+  </si>
+  <si>
+    <t>MOD301</t>
+  </si>
+  <si>
+    <t>D201, D202, D203, D204</t>
+  </si>
+  <si>
+    <t>L202, L301, L302</t>
+  </si>
+  <si>
+    <t>L201</t>
+  </si>
+  <si>
+    <t>C203</t>
+  </si>
+  <si>
+    <t>C204, C209, C215, C216, C304</t>
+  </si>
+  <si>
+    <t>C109</t>
+  </si>
+  <si>
+    <t>C104, C106, C301</t>
+  </si>
+  <si>
+    <t>C103, C105, C107, C108, C110, C111, C201, C205, C207, C210, C213, C214, C217, C302, C305</t>
+  </si>
+  <si>
+    <t>C206, C208</t>
+  </si>
+  <si>
+    <t>C211, C212</t>
+  </si>
+  <si>
+    <t>C101, C102</t>
+  </si>
+  <si>
+    <t>R101, R102, R104, R105</t>
+  </si>
+  <si>
+    <t>R205, R206</t>
+  </si>
+  <si>
+    <t>R107, R108, R204, R207, R208, R301, R302</t>
+  </si>
+  <si>
+    <t>R103, R203</t>
+  </si>
+  <si>
+    <t>R201</t>
   </si>
 </sst>
 </file>
@@ -731,7 +839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,6 +850,7 @@
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -779,6 +888,9 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -802,6 +914,9 @@
       <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -822,6 +937,9 @@
       <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -842,6 +960,9 @@
       <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -862,6 +983,9 @@
       <c r="F7" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -882,6 +1006,9 @@
       <c r="F8" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -902,6 +1029,9 @@
       <c r="F9" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -922,6 +1052,9 @@
       <c r="F10" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -942,6 +1075,9 @@
       <c r="F11" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -962,6 +1098,9 @@
       <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -982,6 +1121,9 @@
       <c r="F13" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1002,6 +1144,9 @@
       <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1022,6 +1167,9 @@
       <c r="F15" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1042,8 +1190,11 @@
       <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1062,8 +1213,11 @@
       <c r="F17" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1236,11 @@
       <c r="F18" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1102,8 +1259,11 @@
       <c r="F19" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1122,8 +1282,11 @@
       <c r="F20" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1142,8 +1305,11 @@
       <c r="F21" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1162,8 +1328,11 @@
       <c r="F22" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1182,8 +1351,11 @@
       <c r="F23" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1202,8 +1374,11 @@
       <c r="F24" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1222,8 +1397,11 @@
       <c r="F25" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1242,8 +1420,11 @@
       <c r="F26" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1262,8 +1443,11 @@
       <c r="F27" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1282,8 +1466,11 @@
       <c r="F28" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1302,8 +1489,11 @@
       <c r="F29" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1322,8 +1512,11 @@
       <c r="F30" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1342,8 +1535,11 @@
       <c r="F31" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1361,6 +1557,9 @@
       </c>
       <c r="F32" s="3" t="s">
         <v>108</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1382,6 +1581,9 @@
       <c r="F33" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="G33" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1402,6 +1604,9 @@
       <c r="F34" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="G34" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1422,6 +1627,9 @@
       <c r="F35" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="G35" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1442,6 +1650,9 @@
       <c r="F36" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="G36" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1462,6 +1673,9 @@
       <c r="F37" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="G37" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1481,6 +1695,9 @@
       </c>
       <c r="F38" s="3" t="s">
         <v>112</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
